--- a/EDA/SAEP_README.xlsx
+++ b/EDA/SAEP_README.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Currently in Service</t>
+          <t>SAEP currently in service</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Functionality of the SAEP</t>
+          <t>The SAEP has production meters</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The operational status of the SAEP, including the functionality of all critical components such as treatment facilities, distribution networks, and storage systems.</t>
+          <t>The presence of meters that quantify the total water produced by the SAEP.</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Is the Water Distributed per Household Sufficient?</t>
+          <t>The SAEP has distribution meters</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>An evaluation of whether the volume of water distributed to each household meets the required minimum standards for daily usage.</t>
+          <t>The presence of meters that measure the volume of water distributed through the network.</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Is It Securely Managed?</t>
+          <t>The SAEP has connection/consumption meters</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>An assessment of the security measures in place to protect the water supply from contamination, theft, and unauthorized access.</t>
+          <t>The availability of meters that record the amount of water consumed by end users.</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Is There Production Meters?</t>
+          <t>SAEP Capacity Used</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The presence of meters that quantify the total water produced by the SAEP.</t>
+          <t>The percentage of the total production capacity of the SAEP that is actually being utilized to serve the population.</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Is There Distribution Meters?</t>
+          <t>SAEP Coverage Rate</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The presence of meters that measure the volume of water distributed through the network.</t>
+          <t>The proportion of the target population that has access to the services provided by the SAEP within its operational area.</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Is There Consumption Meters?</t>
+          <t># of Employees</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The availability of meters that record the amount of water consumed by end users.</t>
+          <t>The total number of personnel employed by the SAEP organization.</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Is There Sufficient Water per Household?</t>
+          <t># of Active Subscribers at the Start of the Month</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Similar to 'Is the Water Distributed per Household Sufficient?', this measures if households receive enough water to meet their needs.</t>
+          <t>The number of active subscribers (those receiving and paying for water services) at the beginning of the month.</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAEP Capacity Used</t>
+          <t># of Active Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The percentage of the total production capacity of the SAEP that is actually being utilized to serve the population.</t>
+          <t>The number of active subscribers at the end of the month.</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAEP Coverage Rate</t>
+          <t># of Passive Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The proportion of the target population that has access to the services provided by the SAEP within its operational area.</t>
+          <t>The number of subscribers who are registered but are not actively receiving water services at the end of the month.</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t># of Employees</t>
+          <t># of Suspended Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The total number of personnel employed by the SAEP organization.</t>
+          <t>The number of subscribers whose services have been temporarily suspended by the end of the month.</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t># of Active Subscribers at the Start of the Month</t>
+          <t># of Subscribers with Arrears</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The number of active subscribers (those receiving and paying for water services) at the beginning of the month.</t>
+          <t>The number of subscribers who have overdue payments for water services.</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t># of Active Subscribers at the End of the Month</t>
+          <t># of Subscribers without Water at the End of the Month</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The number of active subscribers at the end of the month.</t>
+          <t>The number of subscribers who did not receive any water supply by the end of the month.</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t># of Passive Subscribers at the End of the Month</t>
+          <t>Total # of Subscribers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The number of subscribers who are registered but are not actively receiving water services at the end of the month.</t>
+          <t>The total count of subscribers, including active, passive, and suspended.</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t># of Suspended Subscribers at the End of the Month</t>
+          <t>Residentials</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The number of subscribers whose services have been temporarily suspended by the end of the month.</t>
+          <t>The number of subscribers classified as residential households.</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t># of Subscribers with Arrears</t>
+          <t>Institutionals</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The number of subscribers who have overdue payments for water services.</t>
+          <t>The number of subscribers classified as institutions (schools, hospitals, etc.).</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t># of Subscribers without Water at the End of the Month</t>
+          <t>Residential Flat Rate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The number of subscribers who did not receive any water supply by the end of the month.</t>
+          <t>The flat rate charged to residential subscribers for water services.</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Total # of Subscribers</t>
+          <t>Commercial Flat Rate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The total count of subscribers, including active, passive, and suspended.</t>
+          <t>The flat rate charged to commercial subscribers for water services.</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residentials</t>
+          <t>Institutional Flat Rate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as residential households.</t>
+          <t>The flat rate charged to institutional subscribers for water services.</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Institutionals</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as institutions (schools, hospitals, etc.).</t>
+          <t>The number of subscribers classified as commercial businesses.</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Residential Flat Rate</t>
+          <t># of Meters Disconnected</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The flat rate charged to residential subscribers for water services.</t>
+          <t>The number of water meters that have been disconnected either due to non-payment, malfunction, or other reasons.</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Commercial Flat Rate</t>
+          <t># of Meters Reconnected</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The flat rate charged to commercial subscribers for water services.</t>
+          <t>The number of water meters that have been reconnected after being temporarily disconnected.</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Institutional Flat Rate</t>
+          <t># of illegal connections</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The flat rate charged to institutional subscribers for water services.</t>
+          <t>The number of instances where unauthorized water connections have been detected.</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t># of illegal connections regularized</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as commercial businesses.</t>
+          <t>The number of previously unauthorized water intakes that have been regularized (made legal).</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t># of Meters Disconnected</t>
+          <t># of Clients with Active Meters</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The number of water meters that have been disconnected either due to non-payment, malfunction, or other reasons.</t>
+          <t>The number of subscribers who have meters that are currently operating and providing data.</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t># of Meters Reconnected</t>
+          <t># of Existing Meters</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The number of water meters that have been reconnected after being temporarily disconnected.</t>
+          <t>The total number of water meters currently installed within the SAEP's service area.</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t># of Illegal Water Intakes</t>
+          <t># of New Installed Meters</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The number of instances where unauthorized water connections have been detected.</t>
+          <t>The number of new water meters installed during a specific period.</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t># of Illegal Water Intakes Regularized</t>
+          <t># of Meters Down</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The number of previously unauthorized water intakes that have been regularized (made legal).</t>
+          <t>The number of water meters that are malfunctioning or not operational.</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t># of Clients with Active Meters</t>
+          <t># of Meters Replaced</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The number of subscribers who have meters that are currently operating and providing data.</t>
+          <t>The number of old or faulty water meters that have been replaced with new ones.</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t># of Existing Meters</t>
+          <t># of Meters Repaired</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The total number of water meters currently installed within the SAEP's service area.</t>
+          <t>The number of defective water meters that have been repaired and made operational.</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t># of New Installed Meters</t>
+          <t># of Clients with Meters</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The number of new water meters installed during a specific period.</t>
+          <t>The number of subscribers who have water meters installed at their premises.</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t># of Meters Down</t>
+          <t># of Households Served by the SAEP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The number of water meters that are malfunctioning or not operational.</t>
+          <t>The total number of households receiving water services from the SAEP.</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t># of Meters Replaced</t>
+          <t># of Individuals Served by the SAEP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The number of old or faulty water meters that have been replaced with new ones.</t>
+          <t>The total number of individuals benefiting from the water services provided by the SAEP.</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t># of Meters Repaired</t>
+          <t># of SAEP Water Production per Household (liters/household/month)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The number of defective water meters that have been repaired and made operational.</t>
+          <t>The average quantity of water produced by the SAEP per household per month, measured in liters.</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t># of Clients with Meters</t>
+          <t>Total Water Produced (m³/month)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The number of subscribers who have water meters installed at their premises.</t>
+          <t>The total volume of water produced by the SAEP in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t># of Households Served by the SAEP</t>
+          <t>Total Water Distributed (m³/month)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The total number of households receiving water services from the SAEP.</t>
+          <t>The total volume of water distributed through the SAEP's network in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t># of Individuals Served by the SAEP</t>
+          <t>Total Water Consumed (m³/month)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The total number of individuals benefiting from the water services provided by the SAEP.</t>
+          <t>The total volume of water consumed by end users (households, businesses, institutions) in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t># of SAEP Water Production per Household (liters/household/month)</t>
+          <t>% of Water Loss</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The average quantity of water produced by the SAEP per household per month, measured in liters.</t>
+          <t>The percentage of water lost (due to leaks, theft, or unaccounted-for usage) compared to the total water produced. Calculated as [(Total Water Produced - Total Water Distributed) / Total Water Produced] * 100.</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Water Produced (m³/month)</t>
+          <t>% of E. Coli Tests Conform</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The total volume of water produced by the SAEP in a month, measured in cubic meters.</t>
+          <t>The percentage of water quality tests for E. Coli that meet the required safety standards.</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Total Water Distributed (m³/month)</t>
+          <t>% of Residual Chlorine Tests Conforming to Norms</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The total volume of water distributed through the SAEP’s network in a month, measured in cubic meters.</t>
+          <t>The percentage of water quality tests for residual chlorine that comply with established safety norms.</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Total Water Consumed (m³/month)</t>
+          <t>Number of Residual Chlorine Tests Conducted</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The total volume of water consumed by end users (households, businesses, institutions) in a month, measured in cubic meters.</t>
+          <t>The total number of residual chlorine tests conducted to monitor water quality.</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>% of Water Loss</t>
+          <t>Total Revenue (HTG)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The percentage of water lost (due to leaks, theft, or unaccounted-for usage) compared to the total water produced. Calculated as [(Total Water Produced - Total Water Distributed) / Total Water Produced] * 100.</t>
+          <t>The total income generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>% of E. Coli Tests Conform</t>
+          <t>Total Expenses (HTG)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for E. Coli that meet the required safety standards.</t>
+          <t>The total operating expenses incurred by the SAEP, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>% of Residual Chlorine Tests Conforming to Norms</t>
+          <t>Operating Ratio [(Expenses/Revenue) * 100]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for residual chlorine that comply with established safety norms.</t>
+          <t>The operating ratio for a water system is a financial performance metric that indicates how well the system is managing its operating expenses relative to its operating revenues. If the operating ratio is less than 100%: The system is generating more revenue than its operating costs, which indicates financial health and efficiency. If the operating ratio is equal to 100%: The system is breaking even, meaning its revenues are exactly covering its operating expenses. If the operating ratio is greater than 100%: The system is spending more than it earns in revenue, signaling potential financial sustainability issues.</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Number of Residual Chlorine Tests Conducted</t>
+          <t>Amount Collected from Subscribers (HTG)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The total number of residual chlorine tests conducted to monitor water quality.</t>
+          <t>The total amount of money collected from subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Total Revenue (HTG)</t>
+          <t>Amount Billed (HTG)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The total income generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
+          <t>The total value of bills issued to subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Total Expenses (HTG)</t>
+          <t>Collection Efficiency [(Amount Collected / Amount Billed) * 100]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The total operating expenses incurred by the SAEP, measured in Haitian Gourdes (HTG).</t>
+          <t>The efficiency of the SAEP in collecting billed amounts from subscribers. Calculated as (Amount Collected / Amount Billed) * 100.</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Operating Ratio [(Expenses/Revenue) * 100]</t>
+          <t>Amount Collected Arrears</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The financial efficiency of the SAEP, calculated as the ratio of total expenses to total revenue, expressed as a percentage.</t>
+          <t>The total amount of overdue payments collected from subscribers during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Amount Collected from Subscribers (HTG)</t>
+          <t>Amount Arrears (Existing at the Start of the Month)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The total amount of money collected from subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount of overdue payments owed by subscribers at the beginning of the month, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
@@ -1206,70 +1206,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amount Billed (HTG)</t>
+          <t>Collection Efficiency - Arrears [(Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>The total value of bills issued to subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Collection Efficiency [(Amount Collected / Amount Billed) * 100]</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>The efficiency of the SAEP in collecting billed amounts from subscribers. Calculated as (Amount Collected / Amount Billed) * 100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Amount Collected Arrears</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>The total amount of overdue payments collected from subscribers during a specific period, measured in Haitian Gourdes (HTG).</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Amount Arrears (Existing at the Start of the Month)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>The total amount of overdue payments owed by subscribers at the beginning of the month, measured in Haitian Gourdes (HTG).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Collection Efficiency - Arrears [(Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100]</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>The efficiency of the SAEP in collecting overdue payments from subscribers. Calculated as (Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100.</t>
         </is>

--- a/EDA/SAEP_README.xlsx
+++ b/EDA/SAEP_README.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,689 +527,644 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAEP Capacity Used</t>
+          <t>SAEP Coverage Rate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The percentage of the total production capacity of the SAEP that is actually being utilized to serve the population.</t>
+          <t>The proportion of the target population that has access to the services provided by the SAEP within its operational area.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAEP Coverage Rate</t>
+          <t># of Employees</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The proportion of the target population that has access to the services provided by the SAEP within its operational area.</t>
+          <t>The total number of personnel employed by the SAEP organization.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t># of Employees</t>
+          <t># of Active Subscribers at the Start of the Month</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The total number of personnel employed by the SAEP organization.</t>
+          <t>The number of active subscribers (those receiving and paying for water services) at the beginning of the month.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t># of Active Subscribers at the Start of the Month</t>
+          <t># of Active Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The number of active subscribers (those receiving and paying for water services) at the beginning of the month.</t>
+          <t>The number of active subscribers at the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t># of Active Subscribers at the End of the Month</t>
+          <t># of Passive Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The number of active subscribers at the end of the month.</t>
+          <t>The number of subscribers who are registered but are not actively receiving water services at the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t># of Passive Subscribers at the End of the Month</t>
+          <t># of Suspended Subscribers at the End of the Month</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The number of subscribers who are registered but are not actively receiving water services at the end of the month.</t>
+          <t>The number of subscribers whose services have been temporarily suspended by the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t># of Suspended Subscribers at the End of the Month</t>
+          <t># of Subscribers with Arrears</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The number of subscribers whose services have been temporarily suspended by the end of the month.</t>
+          <t>The number of subscribers who have overdue payments for water services.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t># of Subscribers with Arrears</t>
+          <t># of Subscribers without Water at the End of the Month</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The number of subscribers who have overdue payments for water services.</t>
+          <t>The number of subscribers who did not receive any water supply by the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t># of Subscribers without Water at the End of the Month</t>
+          <t>Total # of Subscribers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The number of subscribers who did not receive any water supply by the end of the month.</t>
+          <t>The total count of subscribers, including active, passive, and suspended.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total # of Subscribers</t>
+          <t>Residentials</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The total count of subscribers, including active, passive, and suspended.</t>
+          <t>The number of subscribers classified as residential households.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Residentials</t>
+          <t>Institutionals</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as residential households.</t>
+          <t>The number of subscribers classified as institutions (schools, hospitals, etc.).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Institutionals</t>
+          <t>Residential Flat Rate</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as institutions (schools, hospitals, etc.).</t>
+          <t>The flat rate charged to residential subscribers for water services.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Residential Flat Rate</t>
+          <t>Commercial Flat Rate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The flat rate charged to residential subscribers for water services.</t>
+          <t>The flat rate charged to commercial subscribers for water services.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Commercial Flat Rate</t>
+          <t>Institutional Flat Rate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The flat rate charged to commercial subscribers for water services.</t>
+          <t>The flat rate charged to institutional subscribers for water services.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Institutional Flat Rate</t>
+          <t>Commercials</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The flat rate charged to institutional subscribers for water services.</t>
+          <t>The number of subscribers classified as commercial businesses.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Commercials</t>
+          <t># of Meters Disconnected</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as commercial businesses.</t>
+          <t>The number of water meters that have been disconnected either due to non-payment, malfunction, or other reasons.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t># of Meters Disconnected</t>
+          <t># of Meters Reconnected</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The number of water meters that have been disconnected either due to non-payment, malfunction, or other reasons.</t>
+          <t>The number of water meters that have been reconnected after being temporarily disconnected.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t># of Meters Reconnected</t>
+          <t># of illegal connections</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The number of water meters that have been reconnected after being temporarily disconnected.</t>
+          <t>The number of instances where unauthorized water connections have been detected.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t># of illegal connections</t>
+          <t># of illegal connections regularized</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The number of instances where unauthorized water connections have been detected.</t>
+          <t>The number of previously unauthorized water intakes that have been regularized (made legal).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t># of illegal connections regularized</t>
+          <t># of Clients with Active Meters</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The number of previously unauthorized water intakes that have been regularized (made legal).</t>
+          <t>The number of subscribers who have meters that are currently operating and providing data.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t># of Clients with Active Meters</t>
+          <t># of Existing Meters</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The number of subscribers who have meters that are currently operating and providing data.</t>
+          <t>The total number of water meters currently installed within the SAEP's service area.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t># of Existing Meters</t>
+          <t># of New Installed Meters</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The total number of water meters currently installed within the SAEP's service area.</t>
+          <t>The number of new water meters installed during a specific period.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t># of New Installed Meters</t>
+          <t># of Meters Down</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The number of new water meters installed during a specific period.</t>
+          <t>The number of water meters that are malfunctioning or not operational.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t># of Meters Down</t>
+          <t># of Meters Replaced</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The number of water meters that are malfunctioning or not operational.</t>
+          <t>The number of old or faulty water meters that have been replaced with new ones.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t># of Meters Replaced</t>
+          <t># of Meters Repaired</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The number of old or faulty water meters that have been replaced with new ones.</t>
+          <t>The number of defective water meters that have been repaired and made operational.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t># of Meters Repaired</t>
+          <t># of Households Served by the SAEP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The number of defective water meters that have been repaired and made operational.</t>
+          <t>The total number of households receiving water services from the SAEP.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t># of Clients with Meters</t>
+          <t># of Individuals Served by the SAEP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The number of subscribers who have water meters installed at their premises.</t>
+          <t>The total number of individuals benefiting from the water services provided by the SAEP.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t># of Households Served by the SAEP</t>
+          <t>Total Water Produced (m³/month)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The total number of households receiving water services from the SAEP.</t>
+          <t>The total volume of water produced by the SAEP in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t># of Individuals Served by the SAEP</t>
+          <t>Total Water Distributed (m³/month)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The total number of individuals benefiting from the water services provided by the SAEP.</t>
+          <t>The total volume of water distributed through the SAEP's network in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t># of SAEP Water Production per Household (liters/household/month)</t>
+          <t>Total Water Consumed (m³/month)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The average quantity of water produced by the SAEP per household per month, measured in liters.</t>
+          <t>The total volume of water consumed by end users (households, businesses, institutions) in a month, measured in cubic meters.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Water Produced (m³/month)</t>
+          <t>% of Water Loss</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The total volume of water produced by the SAEP in a month, measured in cubic meters.</t>
+          <t>The percentage of water lost (due to leaks, theft, or unaccounted-for usage) compared to the total water produced. Calculated as [(Total Water Produced - Total Water Distributed) / Total Water Produced] * 100.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Water Distributed (m³/month)</t>
+          <t>% of E. Coli Tests Conform</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The total volume of water distributed through the SAEP's network in a month, measured in cubic meters.</t>
+          <t>The percentage of water quality tests for E. Coli that meet the required safety standards.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Water Consumed (m³/month)</t>
+          <t>% of Residual Chlorine Tests Conforming to Norms</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The total volume of water consumed by end users (households, businesses, institutions) in a month, measured in cubic meters.</t>
+          <t>The percentage of water quality tests for residual chlorine that comply with established safety norms.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>% of Water Loss</t>
+          <t>Number of Residual Chlorine Tests Conducted</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The percentage of water lost (due to leaks, theft, or unaccounted-for usage) compared to the total water produced. Calculated as [(Total Water Produced - Total Water Distributed) / Total Water Produced] * 100.</t>
+          <t>The total number of residual chlorine tests conducted to monitor water quality.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>% of E. Coli Tests Conform</t>
+          <t>Total Revenue (HTG)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for E. Coli that meet the required safety standards.</t>
+          <t>The total income generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>% of Residual Chlorine Tests Conforming to Norms</t>
+          <t>Total Expenses (HTG)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for residual chlorine that comply with established safety norms.</t>
+          <t>The total operating expenses incurred by the SAEP, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Number of Residual Chlorine Tests Conducted</t>
+          <t>Operating Ratio [(Expenses/Revenue) * 100]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The total number of residual chlorine tests conducted to monitor water quality.</t>
+          <t>The operating ratio for a water system is a financial performance metric that indicates how well the system is managing its operating expenses relative to its operating revenues. If the operating ratio is less than 100%: The system is generating more revenue than its operating costs, which indicates financial health and efficiency. If the operating ratio is equal to 100%: The system is breaking even, meaning its revenues are exactly covering its operating expenses. If the operating ratio is greater than 100%: The system is spending more than it earns in revenue, signaling potential financial sustainability issues.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Total Revenue (HTG)</t>
+          <t>Amount Collected from Subscribers (HTG)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The total income generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount of money collected from subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Total Expenses (HTG)</t>
+          <t>Amount Billed (HTG)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The total operating expenses incurred by the SAEP, measured in Haitian Gourdes (HTG).</t>
+          <t>The total value of bills issued to subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Operating Ratio [(Expenses/Revenue) * 100]</t>
+          <t>Collection Efficiency [(Amount Collected / Amount Billed) * 100]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The operating ratio for a water system is a financial performance metric that indicates how well the system is managing its operating expenses relative to its operating revenues. If the operating ratio is less than 100%: The system is generating more revenue than its operating costs, which indicates financial health and efficiency. If the operating ratio is equal to 100%: The system is breaking even, meaning its revenues are exactly covering its operating expenses. If the operating ratio is greater than 100%: The system is spending more than it earns in revenue, signaling potential financial sustainability issues.</t>
+          <t>The efficiency of the SAEP in collecting billed amounts from subscribers. Calculated as (Amount Collected / Amount Billed) * 100.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Amount Collected from Subscribers (HTG)</t>
+          <t>Amount Collected Arrears</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The total amount of money collected from subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount of overdue payments collected from subscribers during a specific period, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amount Billed (HTG)</t>
+          <t>Amount Arrears (Existing at the Start of the Month)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The total value of bills issued to subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount of overdue payments owed by subscribers at the beginning of the month, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Collection Efficiency [(Amount Collected / Amount Billed) * 100]</t>
+          <t>Collection Efficiency - Arrears [(Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
-        <is>
-          <t>The efficiency of the SAEP in collecting billed amounts from subscribers. Calculated as (Amount Collected / Amount Billed) * 100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Amount Collected Arrears</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>The total amount of overdue payments collected from subscribers during a specific period, measured in Haitian Gourdes (HTG).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Amount Arrears (Existing at the Start of the Month)</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>The total amount of overdue payments owed by subscribers at the beginning of the month, measured in Haitian Gourdes (HTG).</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Collection Efficiency - Arrears [(Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100]</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>The efficiency of the SAEP in collecting overdue payments from subscribers. Calculated as (Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100.</t>
         </is>

--- a/EDA/SAEP_README.xlsx
+++ b/EDA/SAEP_README.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Indicate if the SAEP is currently in service</t>
+          <t>Indicates whether the SAEP is currently operational and delivering services.</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The degree to which the SAEP is delivering water as per the predefined timetable to ensure regular and predictable water distribution.</t>
+          <t>Describes the SAEP’s ability to deliver water according to a pre-established schedule, ensuring consistent water distribution.</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The presence of meters that quantify the total water produced by the SAEP.</t>
+          <t>Refers to the existence of meters that measure the total volume of water produced by the SAEP.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The presence of meters that measure the volume of water distributed through the network.</t>
+          <t>Refers to the presence of meters that monitor the amount of water distributed to consumers through the network.</t>
         </is>
       </c>
     </row>
@@ -521,13 +521,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The availability of meters that record the amount of water consumed by end users.</t>
+          <t>Refers to meters that measure water consumption by individual users or households.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The proportion of the target population that has access to the services provided by the SAEP within its operational area.</t>
+          <t>The percentage of the population within the SAEP’s service area that has access to water services.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The total number of personnel employed by the SAEP organization.</t>
+          <t>The total number of employees working for the SAEP.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The number of active subscribers (those receiving and paying for water services) at the beginning of the month.</t>
+          <t>The number of subscribers actively receiving water services at the start of the month.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The number of active subscribers at the end of the month.</t>
+          <t>The number of subscribers actively receiving water services at the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The number of subscribers who are registered but are not actively receiving water services at the end of the month.</t>
+          <t>Subscribers who are registered but not currently receiving water services.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The number of subscribers whose services have been temporarily suspended by the end of the month.</t>
+          <t>Subscribers whose water services have been temporarily suspended.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -626,13 +626,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The number of subscribers who have overdue payments for water services.</t>
+          <t>Subscribers with unpaid bills or overdue payments.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The number of subscribers who did not receive any water supply by the end of the month.</t>
+          <t>The number of subscribers who did not receive water supply by the end of the month.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The total count of subscribers, including active, passive, and suspended.</t>
+          <t>The total number of registered subscribers, including active, passive, and suspended users.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as residential households.</t>
+          <t>The number of residential subscribers.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as institutions (schools, hospitals, etc.).</t>
+          <t>The number of institutional subscribers, such as schools and hospitals.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -701,13 +701,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The flat rate charged to residential subscribers for water services.</t>
+          <t>The flat rate charged to residential users for water services.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -716,13 +716,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The flat rate charged to commercial subscribers for water services.</t>
+          <t>The flat rate charged to commercial users for water services.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -731,13 +731,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The flat rate charged to institutional subscribers for water services.</t>
+          <t>The flat rate charged to institutional users for water services.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The number of subscribers classified as commercial businesses.</t>
+          <t>The number of commercial subscribers.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The number of water meters that have been disconnected either due to non-payment, malfunction, or other reasons.</t>
+          <t>Meters that were disconnected either due to non-payment, damage, or operational reasons.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -776,43 +776,43 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The number of water meters that have been reconnected after being temporarily disconnected.</t>
+          <t>The number of meters that were reconnected after being temporarily disconnected.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t># of illegal connections</t>
+          <t># of Illegal Connections</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The number of instances where unauthorized water connections have been detected.</t>
+          <t>The number of illegal water connections detected by the SAEP.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t># of illegal connections regularized</t>
+          <t># of Illegal Connections Regularized</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The number of previously unauthorized water intakes that have been regularized (made legal).</t>
+          <t>The number of illegal water connections that have been legalized.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -821,13 +821,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The number of subscribers who have meters that are currently operating and providing data.</t>
+          <t>The number of subscribers with functioning meters that provide accurate water usage data.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -836,13 +836,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The total number of water meters currently installed within the SAEP's service area.</t>
+          <t>The total number of water meters installed in the SAEP service area.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -851,13 +851,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The number of new water meters installed during a specific period.</t>
+          <t>Meters installed during the reporting period.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The number of water meters that are malfunctioning or not operational.</t>
+          <t>Meters that are not operational due to malfunction or other reasons.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The number of old or faulty water meters that have been replaced with new ones.</t>
+          <t>Meters replaced due to malfunction or wear and tear.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -896,13 +896,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The number of defective water meters that have been repaired and made operational.</t>
+          <t>Meters that have been repaired and returned to service.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -911,13 +911,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The total number of households receiving water services from the SAEP.</t>
+          <t>The total number of households receiving water services.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -926,13 +926,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The total number of individuals benefiting from the water services provided by the SAEP.</t>
+          <t>The total number of individuals served by the SAEP, calculated based on household size.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The total volume of water produced by the SAEP in a month, measured in cubic meters.</t>
+          <t>The volume of water produced by the SAEP in cubic meters per month.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The total volume of water distributed through the SAEP's network in a month, measured in cubic meters.</t>
+          <t>The volume of water distributed to consumers per month.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The total volume of water consumed by end users (households, businesses, institutions) in a month, measured in cubic meters.</t>
+          <t>The volume of water actually consumed by users per month.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -986,13 +986,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The percentage of water lost (due to leaks, theft, or unaccounted-for usage) compared to the total water produced. Calculated as [(Total Water Produced - Total Water Distributed) / Total Water Produced] * 100.</t>
+          <t>The percentage of water loss in the system, due to leaks, theft, or unaccounted consumption, calculated as [(Produced - Distributed) / Produced] * 100.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1001,13 +1001,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for E. Coli that meet the required safety standards.</t>
+          <t>The percentage of E. Coli tests in drinking water that meet safety standards (0 CFU/100 mL). If any E. Coli is detected, it indicates contamination from fecal material, which may carry harmful bacteria, viruses, or parasites.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1016,13 +1016,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The percentage of water quality tests for residual chlorine that comply with established safety norms.</t>
+          <t>The percentage of residual chlorine tests that meet safety standards, calculated as (Number of residual chlorine tests conforming to norms / Number of residual chlorine tests conducted) * 100.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1046,13 +1046,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The total income generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
+          <t>The total revenue generated by the SAEP from all sources, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The total operating expenses incurred by the SAEP, measured in Haitian Gourdes (HTG).</t>
+          <t>The total expenses incurred by the SAEP in operating the water system, measured in Haitian Gourdes (HTG).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The operating ratio for a water system is a financial performance metric that indicates how well the system is managing its operating expenses relative to its operating revenues. If the operating ratio is less than 100%: The system is generating more revenue than its operating costs, which indicates financial health and efficiency. If the operating ratio is equal to 100%: The system is breaking even, meaning its revenues are exactly covering its operating expenses. If the operating ratio is greater than 100%: The system is spending more than it earns in revenue, signaling potential financial sustainability issues.</t>
+          <t>The operating ratio is a financial performance metric. If less than 100%, the system generates more revenue than its operating costs, indicating financial health. At 100%, the system breaks even. More than 100% means the system spends more than it earns, indicating potential financial issues.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1091,13 +1091,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The total amount of money collected from subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The amount of money collected from subscribers for water services, measured in HTG.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The total value of bills issued to subscribers for water services during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount billed to subscribers for water services during the month, measured in HTG.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The efficiency of the SAEP in collecting billed amounts from subscribers. Calculated as (Amount Collected / Amount Billed) * 100.</t>
+          <t>The efficiency of the SAEP in collecting billed amounts, calculated as (Collected/Billed) * 100.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1136,13 +1136,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The total amount of overdue payments collected from subscribers during a specific period, measured in Haitian Gourdes (HTG).</t>
+          <t>The total amount of overdue payments collected from subscribers, measured in HTG.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The total amount of overdue payments owed by subscribers at the beginning of the month, measured in Haitian Gourdes (HTG).</t>
+          <t>The amount of outstanding arrears at the start of the reporting period, measured in HTG.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The efficiency of the SAEP in collecting overdue payments from subscribers. Calculated as (Amount Arrears Collected / Amount Arrears at the Start of the Month) * 100.</t>
+          <t>The efficiency of collecting arrears, calculated as (Collected Arrears / Starting Arrears) * 100.</t>
         </is>
       </c>
     </row>
